--- a/Old Order Summary Acc/Eurotex/Eurotex.xlsx
+++ b/Old Order Summary Acc/Eurotex/Eurotex.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="173">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -527,6 +527,15 @@
   </si>
   <si>
     <t>12.09.21</t>
+  </si>
+  <si>
+    <t>1/1 rib</t>
+  </si>
+  <si>
+    <t>14.09.21</t>
+  </si>
+  <si>
+    <t>16.09.21</t>
   </si>
 </sst>
 </file>
@@ -979,10 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:R173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C148" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N29" sqref="N29:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,10 +1833,18 @@
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="9"/>
+      <c r="K31" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L31" s="8">
+        <v>1720</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2292</v>
+      </c>
       <c r="O31" s="9"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -1850,7 +1868,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1869,7 +1887,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="11">
         <f>SUM(N29:N32)</f>
-        <v>1705</v>
+        <v>3997</v>
       </c>
       <c r="O33" s="11">
         <f>SUM(O29:O32)</f>
@@ -1877,11 +1895,11 @@
       </c>
       <c r="P33" s="15">
         <f>N33-J33+O33</f>
-        <v>-2296.13</v>
+        <v>-4.1300000000001091</v>
       </c>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -1928,7 +1946,7 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1973,7 +1991,7 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2000,7 +2018,7 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2027,7 +2045,7 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -2044,9 +2062,14 @@
       <c r="N38" s="9"/>
       <c r="O38" s="11"/>
       <c r="P38" s="15"/>
-      <c r="Q38" s="4"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="4">
+        <v>11</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2063,9 +2086,14 @@
       <c r="N39" s="9"/>
       <c r="O39" s="11"/>
       <c r="P39" s="15"/>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="4">
+        <v>15</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -2096,7 +2124,7 @@
       </c>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
@@ -2143,7 +2171,7 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
@@ -2182,7 +2210,7 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2201,7 +2229,7 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2220,7 +2248,7 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -2239,7 +2267,7 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2270,7 +2298,7 @@
       </c>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>61</v>
       </c>
@@ -2317,7 +2345,7 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="4"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>61</v>
       </c>
@@ -2821,10 +2849,18 @@
       <c r="H63" s="4"/>
       <c r="I63" s="8"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="9"/>
+      <c r="K63" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L63" s="8">
+        <v>1714</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N63" s="9">
+        <v>3402</v>
+      </c>
       <c r="O63" s="11"/>
       <c r="P63" s="15"/>
       <c r="Q63" s="4"/>
@@ -2905,7 +2941,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="11">
         <f>SUM(N62:N66)</f>
-        <v>3.5</v>
+        <v>3405.5</v>
       </c>
       <c r="O67" s="11">
         <f>SUM(O62:O66)</f>
@@ -2913,7 +2949,7 @@
       </c>
       <c r="P67" s="15">
         <f>N67-J67+O67</f>
-        <v>-3747.13</v>
+        <v>-345.13000000000011</v>
       </c>
       <c r="Q67" s="4"/>
     </row>
@@ -3801,10 +3837,18 @@
       <c r="H97" s="4"/>
       <c r="I97" s="8"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="11"/>
+      <c r="K97" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="L97" s="12">
+        <v>1720</v>
+      </c>
+      <c r="M97" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N97" s="11">
+        <v>219</v>
+      </c>
       <c r="O97" s="11"/>
       <c r="P97" s="15"/>
       <c r="Q97" s="4"/>
@@ -3885,7 +3929,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="11">
         <f>SUM(N96:N100)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="O101" s="11">
         <f>SUM(O96:O100)</f>
@@ -3893,7 +3937,7 @@
       </c>
       <c r="P101" s="16">
         <f>N101-J101+O101</f>
-        <v>-1750</v>
+        <v>-1531</v>
       </c>
       <c r="Q101" s="4"/>
     </row>
@@ -4118,10 +4162,19 @@
       <c r="J108" s="9">
         <v>1800</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="9"/>
+      <c r="K108" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L108" s="8">
+        <v>1720</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N108" s="9">
+        <f>540+1142</f>
+        <v>1682</v>
+      </c>
       <c r="O108" s="11"/>
       <c r="P108" s="16"/>
       <c r="Q108" s="4"/>
@@ -4183,7 +4236,7 @@
       <c r="M111" s="12"/>
       <c r="N111" s="11">
         <f>SUM(N107:N110)</f>
-        <v>981</v>
+        <v>2663</v>
       </c>
       <c r="O111" s="11">
         <f>SUM(O107:O110)</f>
@@ -4191,7 +4244,7 @@
       </c>
       <c r="P111" s="16">
         <f>N111-J111+O111</f>
-        <v>-3019</v>
+        <v>-1337</v>
       </c>
       <c r="Q111" s="4"/>
     </row>
@@ -5546,7 +5599,7 @@
       <c r="M167" s="12"/>
       <c r="N167" s="11">
         <f>+N143+N137+N131+N126+N121+N116+N106+N111+N101+N95+N89+N83+N78+N73+N61+N67+N56+N51+N46+N40+N33+N28+N22+N17</f>
-        <v>24542.5</v>
+        <v>32137.5</v>
       </c>
       <c r="O167" s="11">
         <f>+O143+O137+O131+O126+O121+O116+O106+O111+O101+O95+O89+O83+O78+O73+O61+O67+O56+O51+O46+O40+O33+O28+O22+O17</f>
@@ -5554,14 +5607,14 @@
       </c>
       <c r="P167" s="19">
         <f>SUM(P7:P166)</f>
-        <v>-51417.05</v>
+        <v>-43822.05</v>
       </c>
       <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N168" s="17">
         <f>J167-N167</f>
-        <v>51417.049999999988</v>
+        <v>43822.049999999988</v>
       </c>
       <c r="O168" s="17"/>
     </row>

--- a/Old Order Summary Acc/Eurotex/Eurotex.xlsx
+++ b/Old Order Summary Acc/Eurotex/Eurotex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Eurotex" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="186">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -536,6 +536,45 @@
   </si>
   <si>
     <t>16.09.21</t>
+  </si>
+  <si>
+    <t>18.09.21</t>
+  </si>
+  <si>
+    <t>19.09.21</t>
+  </si>
+  <si>
+    <t>FLEECE</t>
+  </si>
+  <si>
+    <t>19.09.2</t>
+  </si>
+  <si>
+    <t>20.09.21</t>
+  </si>
+  <si>
+    <t>s/j</t>
+  </si>
+  <si>
+    <t>38/24</t>
+  </si>
+  <si>
+    <t>20.9.21</t>
+  </si>
+  <si>
+    <t>ad-Fleece</t>
+  </si>
+  <si>
+    <t>38/18</t>
+  </si>
+  <si>
+    <t>Transfar to 29910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165.66 kg</t>
+  </si>
+  <si>
+    <t>Loose Yarn</t>
   </si>
 </sst>
 </file>
@@ -597,12 +636,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -633,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -676,6 +721,9 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,9 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N29" sqref="N29:N31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,91 +1060,92 @@
     <col min="14" max="14" width="15.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
@@ -1536,10 +1585,18 @@
       <c r="H20" s="4"/>
       <c r="I20" s="8"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
+      <c r="K20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1735</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="9">
+        <v>332</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="4"/>
@@ -1582,7 +1639,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="11">
         <f>SUM(N18:N21)</f>
-        <v>1947</v>
+        <v>2279</v>
       </c>
       <c r="O22" s="11">
         <f>SUM(O18:O21)</f>
@@ -1590,7 +1647,7 @@
       </c>
       <c r="P22" s="15">
         <f>N22-J22+O22</f>
-        <v>-2054.33</v>
+        <v>-1722.33</v>
       </c>
       <c r="Q22" s="4"/>
     </row>
@@ -2056,10 +2113,18 @@
       <c r="H38" s="4"/>
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="9"/>
+      <c r="K38" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1735</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="9">
+        <v>70</v>
+      </c>
       <c r="O38" s="11"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="4">
@@ -2112,7 +2177,7 @@
       <c r="M40" s="12"/>
       <c r="N40" s="11">
         <f>SUM(N34:N39)</f>
-        <v>6411</v>
+        <v>6481</v>
       </c>
       <c r="O40" s="11">
         <f>SUM(O34:O39)</f>
@@ -2120,7 +2185,7 @@
       </c>
       <c r="P40" s="15">
         <f>N40-J40+O40</f>
-        <v>-65.090000000000146</v>
+        <v>4.9099999999998545</v>
       </c>
       <c r="Q40" s="4"/>
     </row>
@@ -2202,10 +2267,18 @@
       <c r="J42" s="9">
         <v>4957.47</v>
       </c>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
+      <c r="K42" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1726</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" s="9">
+        <v>5158</v>
+      </c>
       <c r="O42" s="11"/>
       <c r="P42" s="15"/>
       <c r="Q42" s="4"/>
@@ -2221,10 +2294,18 @@
       <c r="H43" s="4"/>
       <c r="I43" s="8"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="9"/>
+      <c r="K43" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1729</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N43" s="9">
+        <v>670</v>
+      </c>
       <c r="O43" s="11"/>
       <c r="P43" s="15"/>
       <c r="Q43" s="4"/>
@@ -2286,7 +2367,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="11">
         <f>SUM(N41:N45)</f>
-        <v>6</v>
+        <v>5834</v>
       </c>
       <c r="O46" s="11">
         <f>SUM(O41:O45)</f>
@@ -2294,7 +2375,7 @@
       </c>
       <c r="P46" s="15">
         <f>N46-J46+O46</f>
-        <v>-5994.75</v>
+        <v>-166.75</v>
       </c>
       <c r="Q46" s="4"/>
     </row>
@@ -2714,10 +2795,18 @@
       <c r="H58" s="4"/>
       <c r="I58" s="8"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="9"/>
+      <c r="K58" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L58" s="8">
+        <v>1729</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N58" s="9">
+        <v>2791</v>
+      </c>
       <c r="O58" s="11"/>
       <c r="P58" s="15"/>
       <c r="Q58" s="4"/>
@@ -2779,7 +2868,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="11">
         <f>SUM(N57:N60)</f>
-        <v>954</v>
+        <v>3745</v>
       </c>
       <c r="O61" s="11">
         <f>SUM(O57:O60)</f>
@@ -2787,7 +2876,7 @@
       </c>
       <c r="P61" s="15">
         <f>N61-J61+O61</f>
-        <v>-2796.63</v>
+        <v>-5.6300000000001091</v>
       </c>
       <c r="Q61" s="4"/>
     </row>
@@ -2798,7 +2887,7 @@
       <c r="B62" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>32132</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -2876,15 +2965,23 @@
       <c r="H64" s="4"/>
       <c r="I64" s="8"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9"/>
+      <c r="K64" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L64" s="8">
+        <v>1729</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N64" s="9">
+        <v>235</v>
+      </c>
       <c r="O64" s="11"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2903,7 +3000,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="4"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2922,7 +3019,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="4"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2941,7 +3038,7 @@
       <c r="M67" s="12"/>
       <c r="N67" s="11">
         <f>SUM(N62:N66)</f>
-        <v>3405.5</v>
+        <v>3640.5</v>
       </c>
       <c r="O67" s="11">
         <f>SUM(O62:O66)</f>
@@ -2949,11 +3046,11 @@
       </c>
       <c r="P67" s="15">
         <f>N67-J67+O67</f>
-        <v>-345.13000000000011</v>
+        <v>-110.13000000000011</v>
       </c>
       <c r="Q67" s="4"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>21</v>
       </c>
@@ -2994,7 +3091,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="4"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>21</v>
       </c>
@@ -3023,15 +3120,23 @@
       <c r="J69" s="9">
         <v>200</v>
       </c>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="11"/>
+      <c r="K69" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="L69" s="12">
+        <v>1729</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N69" s="11">
+        <v>443</v>
+      </c>
       <c r="O69" s="11"/>
       <c r="P69" s="15"/>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
@@ -3060,15 +3165,23 @@
       <c r="J70" s="9">
         <v>200</v>
       </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="11"/>
+      <c r="K70" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L70" s="12">
+        <v>1737</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N70" s="11">
+        <v>165.66</v>
+      </c>
       <c r="O70" s="11"/>
       <c r="P70" s="15"/>
       <c r="Q70" s="4"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>21</v>
       </c>
@@ -3105,7 +3218,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="4"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3124,7 +3237,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="4"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3143,7 +3256,7 @@
       <c r="M73" s="12"/>
       <c r="N73" s="11">
         <f>SUM(N68:N72)</f>
-        <v>0</v>
+        <v>608.66</v>
       </c>
       <c r="O73" s="11">
         <f>SUM(O68:O72)</f>
@@ -3151,11 +3264,11 @@
       </c>
       <c r="P73" s="15">
         <f>N73-J73+O73</f>
-        <v>-757.5</v>
+        <v>-148.84000000000003</v>
       </c>
       <c r="Q73" s="4"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>21</v>
       </c>
@@ -3202,7 +3315,7 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="4"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>21</v>
       </c>
@@ -3233,15 +3346,28 @@
       <c r="J75" s="20">
         <v>365.4</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="9"/>
+      <c r="K75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L75" s="8">
+        <v>1737</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N75" s="9">
+        <v>21.34</v>
+      </c>
       <c r="O75" s="9"/>
       <c r="P75" s="15"/>
-      <c r="Q75" s="4"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3406,7 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="4"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3299,7 +3425,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="4"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3318,7 +3444,7 @@
       <c r="M78" s="12"/>
       <c r="N78" s="11">
         <f>SUM(N74:N77)</f>
-        <v>696</v>
+        <v>717.34</v>
       </c>
       <c r="O78" s="11">
         <f>SUM(O74:O77)</f>
@@ -3326,11 +3452,11 @@
       </c>
       <c r="P78" s="16">
         <f>N78-J78+O78</f>
-        <v>-21.339999999999918</v>
+        <v>1.1368683772161603E-13</v>
       </c>
       <c r="Q78" s="4"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>103</v>
       </c>
@@ -3371,7 +3497,7 @@
       <c r="P79" s="16"/>
       <c r="Q79" s="4"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3689,10 +3815,18 @@
       <c r="H91" s="4"/>
       <c r="I91" s="8"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="11"/>
+      <c r="K91" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="L91" s="12">
+        <v>1729</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N91" s="11">
+        <v>263</v>
+      </c>
       <c r="O91" s="11"/>
       <c r="P91" s="16"/>
       <c r="Q91" s="4"/>
@@ -3773,7 +3907,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="11">
         <f>SUM(N90:N94)</f>
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="O95" s="11">
         <f>SUM(O90:O94)</f>
@@ -3781,7 +3915,7 @@
       </c>
       <c r="P95" s="16">
         <f>N95-J95+O95</f>
-        <v>-5000</v>
+        <v>-4737</v>
       </c>
       <c r="Q95" s="4"/>
     </row>
@@ -3864,10 +3998,18 @@
       <c r="H98" s="4"/>
       <c r="I98" s="8"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="12"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="12"/>
-      <c r="N98" s="11"/>
+      <c r="K98" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L98" s="12">
+        <v>1734</v>
+      </c>
+      <c r="M98" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N98" s="11">
+        <v>1528</v>
+      </c>
       <c r="O98" s="11"/>
       <c r="P98" s="15"/>
       <c r="Q98" s="4"/>
@@ -3883,10 +4025,18 @@
       <c r="H99" s="4"/>
       <c r="I99" s="8"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="11"/>
+      <c r="K99" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L99" s="12">
+        <v>1738</v>
+      </c>
+      <c r="M99" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N99" s="11">
+        <v>5</v>
+      </c>
       <c r="O99" s="11"/>
       <c r="P99" s="15"/>
       <c r="Q99" s="4"/>
@@ -3929,7 +4079,7 @@
       <c r="M101" s="12"/>
       <c r="N101" s="11">
         <f>SUM(N96:N100)</f>
-        <v>219</v>
+        <v>1752</v>
       </c>
       <c r="O101" s="11">
         <f>SUM(O96:O100)</f>
@@ -3937,7 +4087,7 @@
       </c>
       <c r="P101" s="16">
         <f>N101-J101+O101</f>
-        <v>-1531</v>
+        <v>2</v>
       </c>
       <c r="Q101" s="4"/>
     </row>
@@ -4190,10 +4340,18 @@
       <c r="H109" s="4"/>
       <c r="I109" s="8"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="9"/>
+      <c r="K109" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L109" s="8">
+        <v>1729</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N109" s="9">
+        <v>952</v>
+      </c>
       <c r="O109" s="11"/>
       <c r="P109" s="16"/>
       <c r="Q109" s="4"/>
@@ -4236,7 +4394,7 @@
       <c r="M111" s="12"/>
       <c r="N111" s="11">
         <f>SUM(N107:N110)</f>
-        <v>2663</v>
+        <v>3615</v>
       </c>
       <c r="O111" s="11">
         <f>SUM(O107:O110)</f>
@@ -4244,7 +4402,7 @@
       </c>
       <c r="P111" s="16">
         <f>N111-J111+O111</f>
-        <v>-1337</v>
+        <v>-385</v>
       </c>
       <c r="Q111" s="4"/>
     </row>
@@ -4279,15 +4437,23 @@
       <c r="J112" s="9">
         <v>135.41</v>
       </c>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
+      <c r="K112" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L112" s="12">
+        <v>1734</v>
+      </c>
+      <c r="M112" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="N112" s="11">
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="O112" s="11"/>
       <c r="P112" s="16"/>
-      <c r="Q112" s="4"/>
+      <c r="Q112" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
@@ -4385,7 +4551,7 @@
       <c r="M116" s="12"/>
       <c r="N116" s="11">
         <f>SUM(N112:N115)</f>
-        <v>0</v>
+        <v>1229</v>
       </c>
       <c r="O116" s="11">
         <f>SUM(O112:O115)</f>
@@ -4393,7 +4559,7 @@
       </c>
       <c r="P116" s="16">
         <f>N116-J116+O116</f>
-        <v>-1377.0700000000002</v>
+        <v>-148.07000000000016</v>
       </c>
       <c r="Q116" s="4"/>
     </row>
@@ -4428,15 +4594,23 @@
       <c r="J117" s="9">
         <v>1525</v>
       </c>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
+      <c r="K117" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="L117" s="12">
+        <v>1734</v>
+      </c>
+      <c r="M117" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="N117" s="11">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="O117" s="11"/>
       <c r="P117" s="16"/>
-      <c r="Q117" s="4"/>
+      <c r="Q117" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -4534,7 +4708,7 @@
       <c r="M121" s="12"/>
       <c r="N121" s="11">
         <f>SUM(N117:N120)</f>
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="O121" s="11">
         <f>SUM(O117:O120)</f>
@@ -4542,7 +4716,7 @@
       </c>
       <c r="P121" s="16">
         <f>N121-J121+O121</f>
-        <v>-3200</v>
+        <v>-2406</v>
       </c>
       <c r="Q121" s="4"/>
     </row>
@@ -4553,7 +4727,7 @@
       <c r="B122" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C122" s="7">
+      <c r="C122" s="21">
         <v>34252</v>
       </c>
       <c r="D122" s="8" t="s">
@@ -4577,15 +4751,23 @@
       <c r="J122" s="9">
         <v>357.5</v>
       </c>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
+      <c r="K122" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="L122" s="12">
+        <v>1736</v>
+      </c>
+      <c r="M122" s="12" t="s">
+        <v>181</v>
+      </c>
       <c r="N122" s="11">
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="O122" s="11"/>
       <c r="P122" s="16"/>
-      <c r="Q122" s="4"/>
+      <c r="Q122" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
@@ -4594,7 +4776,7 @@
       <c r="B123" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C123" s="7">
+      <c r="C123" s="21">
         <v>34252</v>
       </c>
       <c r="D123" s="8" t="s">
@@ -4683,7 +4865,7 @@
       <c r="M126" s="12"/>
       <c r="N126" s="11">
         <f>SUM(N122:N125)</f>
-        <v>0</v>
+        <v>1029</v>
       </c>
       <c r="O126" s="11">
         <f>SUM(O122:O125)</f>
@@ -4691,7 +4873,7 @@
       </c>
       <c r="P126" s="16">
         <f>N126-J126+O126</f>
-        <v>-2393.66</v>
+        <v>-1364.6599999999999</v>
       </c>
       <c r="Q126" s="4"/>
     </row>
@@ -4702,7 +4884,7 @@
       <c r="B127" s="7">
         <v>210032008</v>
       </c>
-      <c r="C127" s="7">
+      <c r="C127" s="21">
         <v>33833</v>
       </c>
       <c r="D127" s="8" t="s">
@@ -4743,7 +4925,7 @@
       <c r="B128" s="7">
         <v>210032008</v>
       </c>
-      <c r="C128" s="7">
+      <c r="C128" s="21">
         <v>33833</v>
       </c>
       <c r="D128" s="8" t="s">
@@ -4851,7 +5033,7 @@
       <c r="B132" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="7">
+      <c r="C132" s="21">
         <v>32845</v>
       </c>
       <c r="D132" s="8" t="s">
@@ -4999,7 +5181,7 @@
       <c r="B138" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C138" s="7">
+      <c r="C138" s="21">
         <v>32363</v>
       </c>
       <c r="D138" s="8" t="s">
@@ -5599,7 +5781,7 @@
       <c r="M167" s="12"/>
       <c r="N167" s="11">
         <f>+N143+N137+N131+N126+N121+N116+N106+N111+N101+N95+N89+N83+N78+N73+N61+N67+N56+N51+N46+N40+N33+N28+N22+N17</f>
-        <v>32137.5</v>
+        <v>47823.5</v>
       </c>
       <c r="O167" s="11">
         <f>+O143+O137+O131+O126+O121+O116+O106+O111+O101+O95+O89+O83+O78+O73+O61+O67+O56+O51+O46+O40+O33+O28+O22+O17</f>
@@ -5607,14 +5789,14 @@
       </c>
       <c r="P167" s="19">
         <f>SUM(P7:P166)</f>
-        <v>-43822.05</v>
+        <v>-28136.05</v>
       </c>
       <c r="Q167" s="4"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N168" s="17">
         <f>J167-N167</f>
-        <v>43822.049999999988</v>
+        <v>28136.049999999988</v>
       </c>
       <c r="O168" s="17"/>
     </row>

--- a/Old Order Summary Acc/Eurotex/Eurotex.xlsx
+++ b/Old Order Summary Acc/Eurotex/Eurotex.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Eurotex" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eurotex!$B$6:$P$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Eurotex!$B$6:$P$155</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="186">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -511,15 +511,6 @@
     <t>21-08895</t>
   </si>
   <si>
-    <t>CCB2411673/734/735/736/498/439/440/441</t>
-  </si>
-  <si>
-    <t>WT45.36C-18</t>
-  </si>
-  <si>
-    <t>21-08972</t>
-  </si>
-  <si>
     <t>11.09.21</t>
   </si>
   <si>
@@ -575,6 +566,15 @@
   </si>
   <si>
     <t>Loose Yarn</t>
+  </si>
+  <si>
+    <t>21.09.21</t>
+  </si>
+  <si>
+    <t>36/24</t>
+  </si>
+  <si>
+    <t>21.09.09.21</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,6 +740,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1036,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R173"/>
+  <dimension ref="A1:R164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="A74"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1583,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="11"/>
       <c r="K19" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L19" s="8">
         <v>1701</v>
@@ -1586,7 +1610,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L20" s="8">
         <v>1735</v>
@@ -1891,7 +1915,7 @@
       <c r="I31" s="8"/>
       <c r="J31" s="9"/>
       <c r="K31" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L31" s="8">
         <v>1720</v>
@@ -2087,7 +2111,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="9"/>
       <c r="K37" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L37" s="8">
         <v>1701</v>
@@ -2114,7 +2138,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L38" s="8">
         <v>1735</v>
@@ -2155,7 +2179,7 @@
         <v>15</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2268,7 +2292,7 @@
         <v>4957.47</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L42" s="8">
         <v>1726</v>
@@ -2295,7 +2319,7 @@
       <c r="I43" s="8"/>
       <c r="J43" s="11"/>
       <c r="K43" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L43" s="8">
         <v>1729</v>
@@ -2411,7 +2435,7 @@
         <v>330.75</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L47" s="8">
         <v>1697</v>
@@ -2458,7 +2482,7 @@
         <v>1035.72</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L48" s="8">
         <v>1697</v>
@@ -2504,10 +2528,18 @@
       <c r="J49" s="9">
         <v>1735.02</v>
       </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="9"/>
+      <c r="K49" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L49" s="8">
+        <v>1750</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N49" s="9">
+        <v>1482</v>
+      </c>
       <c r="O49" s="9"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="4"/>
@@ -2550,7 +2582,7 @@
       <c r="M51" s="12"/>
       <c r="N51" s="11">
         <f>SUM(N47:N50)</f>
-        <v>483</v>
+        <v>1965</v>
       </c>
       <c r="O51" s="11">
         <f>SUM(O47:O50)</f>
@@ -2558,7 +2590,7 @@
       </c>
       <c r="P51" s="15">
         <f>N51-J51+O51</f>
-        <v>-2618.4899999999998</v>
+        <v>-1136.4899999999998</v>
       </c>
       <c r="Q51" s="4"/>
     </row>
@@ -2796,7 +2828,7 @@
       <c r="I58" s="8"/>
       <c r="J58" s="9"/>
       <c r="K58" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L58" s="8">
         <v>1729</v>
@@ -2939,7 +2971,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="9"/>
       <c r="K63" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L63" s="8">
         <v>1714</v>
@@ -2966,7 +2998,7 @@
       <c r="I64" s="8"/>
       <c r="J64" s="9"/>
       <c r="K64" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L64" s="8">
         <v>1729</v>
@@ -3121,13 +3153,13 @@
         <v>200</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L69" s="12">
         <v>1729</v>
       </c>
       <c r="M69" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N69" s="11">
         <v>443</v>
@@ -3166,13 +3198,13 @@
         <v>200</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L70" s="12">
         <v>1737</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N70" s="11">
         <v>165.66</v>
@@ -3300,7 +3332,7 @@
         <v>82.5</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L74" s="8">
         <v>1697</v>
@@ -3347,7 +3379,7 @@
         <v>365.4</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L75" s="8">
         <v>1737</v>
@@ -3361,10 +3393,10 @@
       <c r="O75" s="9"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -3592,7 +3624,7 @@
       <c r="B84" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="21">
         <v>32200</v>
       </c>
       <c r="D84" s="8" t="s">
@@ -3671,7 +3703,7 @@
       <c r="I86" s="8"/>
       <c r="J86" s="9"/>
       <c r="K86" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L86" s="8">
         <v>1697</v>
@@ -3698,7 +3730,7 @@
       <c r="I87" s="8"/>
       <c r="J87" s="11"/>
       <c r="K87" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L87" s="8">
         <v>1701</v>
@@ -3770,7 +3802,7 @@
       <c r="B90" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="21">
         <v>33805</v>
       </c>
       <c r="D90" s="8" t="s">
@@ -3816,7 +3848,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="9"/>
       <c r="K91" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L91" s="12">
         <v>1729</v>
@@ -3920,176 +3952,176 @@
       <c r="Q95" s="4"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="26">
         <v>32832</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="28">
         <v>1750</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="28">
         <v>1750</v>
       </c>
-      <c r="K96" s="12"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="11">
+      <c r="K96" s="29"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="29"/>
+      <c r="N96" s="30">
         <v>0</v>
       </c>
-      <c r="O96" s="11"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="4"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="31"/>
+      <c r="Q96" s="25"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="9"/>
-      <c r="K97" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="L97" s="12">
+      <c r="A97" s="25"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L97" s="29">
         <v>1720</v>
       </c>
-      <c r="M97" s="12" t="s">
+      <c r="M97" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N97" s="11">
+      <c r="N97" s="30">
         <v>219</v>
       </c>
-      <c r="O97" s="11"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="4"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="31"/>
+      <c r="Q97" s="25"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L98" s="12">
+      <c r="A98" s="25"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L98" s="29">
         <v>1734</v>
       </c>
-      <c r="M98" s="12" t="s">
+      <c r="M98" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="11">
+      <c r="N98" s="30">
         <v>1528</v>
       </c>
-      <c r="O98" s="11"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="4"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="31"/>
+      <c r="Q98" s="25"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L99" s="12">
+      <c r="A99" s="25"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="L99" s="29">
         <v>1738</v>
       </c>
-      <c r="M99" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N99" s="11">
+      <c r="M99" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="N99" s="30">
         <v>5</v>
       </c>
-      <c r="O99" s="11"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="4"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="31"/>
+      <c r="Q99" s="25"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="4"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="28"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="28"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="25"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="8"/>
-      <c r="J101" s="11">
+      <c r="A101" s="25"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="28"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="30">
         <f>SUM(J96:J100)</f>
         <v>1750</v>
       </c>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="11">
+      <c r="K101" s="29"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="30">
         <f>SUM(N96:N100)</f>
         <v>1752</v>
       </c>
-      <c r="O101" s="11">
+      <c r="O101" s="30">
         <f>SUM(O96:O100)</f>
         <v>0</v>
       </c>
-      <c r="P101" s="16">
+      <c r="P101" s="32">
         <f>N101-J101+O101</f>
         <v>2</v>
       </c>
-      <c r="Q101" s="4"/>
+      <c r="Q101" s="25"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -4098,7 +4130,7 @@
       <c r="B102" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="21">
         <v>32345</v>
       </c>
       <c r="D102" s="8" t="s">
@@ -4123,7 +4155,7 @@
         <v>3102.12</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L102" s="8">
         <v>1697</v>
@@ -4150,7 +4182,7 @@
       <c r="I103" s="8"/>
       <c r="J103" s="9"/>
       <c r="K103" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L103" s="8">
         <v>1701</v>
@@ -4241,7 +4273,7 @@
       <c r="B107" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="21">
         <v>32841</v>
       </c>
       <c r="D107" s="8" t="s">
@@ -4266,7 +4298,7 @@
         <v>2200</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L107" s="8">
         <v>1701</v>
@@ -4288,7 +4320,7 @@
       <c r="B108" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="21">
         <v>32841</v>
       </c>
       <c r="D108" s="8" t="s">
@@ -4313,7 +4345,7 @@
         <v>1800</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L108" s="8">
         <v>1720</v>
@@ -4341,7 +4373,7 @@
       <c r="I109" s="8"/>
       <c r="J109" s="9"/>
       <c r="K109" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L109" s="8">
         <v>1729</v>
@@ -4367,10 +4399,18 @@
       <c r="H110" s="4"/>
       <c r="I110" s="8"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="9"/>
+      <c r="K110" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L110" s="8">
+        <v>1751</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N110" s="9">
+        <v>375</v>
+      </c>
       <c r="O110" s="11"/>
       <c r="P110" s="16"/>
       <c r="Q110" s="4"/>
@@ -4394,7 +4434,7 @@
       <c r="M111" s="12"/>
       <c r="N111" s="11">
         <f>SUM(N107:N110)</f>
-        <v>3615</v>
+        <v>3990</v>
       </c>
       <c r="O111" s="11">
         <f>SUM(O107:O110)</f>
@@ -4402,7 +4442,7 @@
       </c>
       <c r="P111" s="16">
         <f>N111-J111+O111</f>
-        <v>-385</v>
+        <v>-10</v>
       </c>
       <c r="Q111" s="4"/>
     </row>
@@ -4413,7 +4453,7 @@
       <c r="B112" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="21">
         <v>32847</v>
       </c>
       <c r="D112" s="8" t="s">
@@ -4438,13 +4478,13 @@
         <v>135.41</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L112" s="12">
         <v>1734</v>
       </c>
       <c r="M112" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N112" s="11">
         <v>1229</v>
@@ -4452,7 +4492,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="16"/>
       <c r="Q112" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -4462,7 +4502,7 @@
       <c r="B113" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="21">
         <v>32847</v>
       </c>
       <c r="D113" s="8" t="s">
@@ -4570,7 +4610,7 @@
       <c r="B117" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="21" t="s">
         <v>142</v>
       </c>
       <c r="D117" s="8" t="s">
@@ -4595,13 +4635,13 @@
         <v>1525</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L117" s="12">
         <v>1734</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N117" s="11">
         <v>794</v>
@@ -4609,7 +4649,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -4619,7 +4659,7 @@
       <c r="B118" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="21" t="s">
         <v>142</v>
       </c>
       <c r="D118" s="8" t="s">
@@ -4643,10 +4683,18 @@
       <c r="J118" s="9">
         <v>1675</v>
       </c>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="11"/>
+      <c r="K118" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L118" s="12">
+        <v>1751</v>
+      </c>
+      <c r="M118" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="N118" s="11">
+        <v>620</v>
+      </c>
       <c r="O118" s="11"/>
       <c r="P118" s="16"/>
       <c r="Q118" s="4"/>
@@ -4708,7 +4756,7 @@
       <c r="M121" s="12"/>
       <c r="N121" s="11">
         <f>SUM(N117:N120)</f>
-        <v>794</v>
+        <v>1414</v>
       </c>
       <c r="O121" s="11">
         <f>SUM(O117:O120)</f>
@@ -4716,7 +4764,7 @@
       </c>
       <c r="P121" s="16">
         <f>N121-J121+O121</f>
-        <v>-2406</v>
+        <v>-1786</v>
       </c>
       <c r="Q121" s="4"/>
     </row>
@@ -4752,13 +4800,13 @@
         <v>357.5</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L122" s="12">
         <v>1736</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N122" s="11">
         <v>1029</v>
@@ -4766,7 +4814,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="16"/>
       <c r="Q122" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -5078,13 +5126,24 @@
       <c r="H133" s="4"/>
       <c r="I133" s="8"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="12"/>
-      <c r="N133" s="11"/>
+      <c r="K133" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L133" s="12">
+        <v>1751</v>
+      </c>
+      <c r="M133" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N133" s="11">
+        <f>212+216</f>
+        <v>428</v>
+      </c>
       <c r="O133" s="11"/>
       <c r="P133" s="16"/>
-      <c r="Q133" s="4"/>
+      <c r="Q133" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
@@ -5162,7 +5221,7 @@
       <c r="M137" s="12"/>
       <c r="N137" s="11">
         <f>SUM(N132:N136)</f>
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="O137" s="11">
         <f>SUM(O132:O136)</f>
@@ -5170,47 +5229,25 @@
       </c>
       <c r="P137" s="16">
         <f>N137-J137+O137</f>
-        <v>-3172.93</v>
+        <v>-2744.93</v>
       </c>
       <c r="Q137" s="4"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C138" s="21">
-        <v>32363</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" s="9">
-        <v>6279.84</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I138" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="J138" s="9">
-        <v>6279.84</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="8"/>
+      <c r="J138" s="11"/>
       <c r="K138" s="12"/>
       <c r="L138" s="12"/>
       <c r="M138" s="12"/>
-      <c r="N138" s="11">
-        <v>0</v>
-      </c>
+      <c r="N138" s="11"/>
       <c r="O138" s="11"/>
       <c r="P138" s="16"/>
       <c r="Q138" s="4"/>
@@ -5301,25 +5338,13 @@
       <c r="G143" s="9"/>
       <c r="H143" s="4"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="11">
-        <f>SUM(J138:J142)</f>
-        <v>6279.84</v>
-      </c>
+      <c r="J143" s="11"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
       <c r="M143" s="12"/>
-      <c r="N143" s="11">
-        <f>SUM(N138:N142)</f>
-        <v>0</v>
-      </c>
-      <c r="O143" s="11">
-        <f>SUM(O138:O142)</f>
-        <v>0</v>
-      </c>
-      <c r="P143" s="16">
-        <f>N143-J143+O143</f>
-        <v>-6279.84</v>
-      </c>
+      <c r="N143" s="11"/>
+      <c r="O143" s="11"/>
+      <c r="P143" s="16"/>
       <c r="Q143" s="4"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
@@ -5541,26 +5566,26 @@
       <c r="G155" s="9"/>
       <c r="H155" s="4"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="11"/>
-      <c r="O155" s="11"/>
-      <c r="P155" s="16"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="4"/>
       <c r="Q155" s="4"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="7"/>
-      <c r="C156" s="7"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
       <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
+      <c r="E156" s="14"/>
       <c r="F156" s="8"/>
       <c r="G156" s="9"/>
       <c r="H156" s="4"/>
       <c r="I156" s="8"/>
-      <c r="J156" s="11"/>
+      <c r="J156" s="9"/>
       <c r="K156" s="12"/>
       <c r="L156" s="12"/>
       <c r="M156" s="12"/>
@@ -5571,15 +5596,15 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
       <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="E157" s="14"/>
       <c r="F157" s="8"/>
       <c r="G157" s="9"/>
       <c r="H157" s="4"/>
       <c r="I157" s="8"/>
-      <c r="J157" s="11"/>
+      <c r="J157" s="9"/>
       <c r="K157" s="12"/>
       <c r="L157" s="12"/>
       <c r="M157" s="12"/>
@@ -5590,226 +5615,55 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="7"/>
-      <c r="C158" s="7"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
       <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="E158" s="14"/>
       <c r="F158" s="8"/>
-      <c r="G158" s="9"/>
+      <c r="G158" s="11">
+        <f>SUM(G7:G157)</f>
+        <v>69679.13</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="8"/>
-      <c r="J158" s="11"/>
+      <c r="J158" s="11" t="e">
+        <f>+#REF!+J137+J131+J126+J121+J116+J106+J111+J101+J95+J89+J83+J78+J73+J61+J67+J56+J51+J46+J40+J33+J28+J22+J17</f>
+        <v>#REF!</v>
+      </c>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
       <c r="M158" s="12"/>
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
-      <c r="P158" s="16"/>
+      <c r="N158" s="11" t="e">
+        <f>+#REF!+N137+N131+N126+N121+N116+N106+N111+N101+N95+N89+N83+N78+N73+N61+N67+N56+N51+N46+N40+N33+N28+N22+N17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O158" s="11" t="e">
+        <f>+#REF!+O137+O131+O126+O121+O116+O106+O111+O101+O95+O89+O83+O78+O73+O61+O67+O56+O51+O46+O40+O33+O28+O22+O17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P158" s="19">
+        <f>SUM(P7:P157)</f>
+        <v>-18951.21</v>
+      </c>
       <c r="Q158" s="4"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="8"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="16"/>
-      <c r="Q159" s="4"/>
+      <c r="N159" s="17" t="e">
+        <f>J158-N158</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O159" s="17"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="11"/>
-      <c r="O160" s="11"/>
-      <c r="P160" s="16"/>
-      <c r="Q160" s="4"/>
-    </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="B161" s="7"/>
-      <c r="C161" s="7"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
-      <c r="P161" s="16"/>
-      <c r="Q161" s="4"/>
-    </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="B162" s="7"/>
-      <c r="C162" s="7"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="4"/>
-      <c r="I162" s="8"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="11"/>
-      <c r="O162" s="11"/>
-      <c r="P162" s="16"/>
-      <c r="Q162" s="4"/>
-    </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="16"/>
-      <c r="Q163" s="4"/>
-    </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="9"/>
-      <c r="O164" s="9"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="8"/>
-      <c r="J165" s="9"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
-      <c r="P165" s="16"/>
-      <c r="Q165" s="4"/>
-    </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="9"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
-      <c r="P166" s="16"/>
-      <c r="Q166" s="4"/>
-    </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="B167" s="8"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="11">
-        <f>SUM(G7:G166)</f>
-        <v>75958.97</v>
-      </c>
-      <c r="H167" s="4"/>
-      <c r="I167" s="8"/>
-      <c r="J167" s="11">
-        <f>+J143+J137+J131+J126+J121+J116+J106+J111+J101+J95+J89+J83+J78+J73+J61+J67+J56+J51+J46+J40+J33+J28+J22+J17</f>
-        <v>75959.549999999988</v>
-      </c>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="11">
-        <f>+N143+N137+N131+N126+N121+N116+N106+N111+N101+N95+N89+N83+N78+N73+N61+N67+N56+N51+N46+N40+N33+N28+N22+N17</f>
-        <v>47823.5</v>
-      </c>
-      <c r="O167" s="11">
-        <f>+O143+O137+O131+O126+O121+O116+O106+O111+O101+O95+O89+O83+O78+O73+O61+O67+O56+O51+O46+O40+O33+O28+O22+O17</f>
-        <v>0</v>
-      </c>
-      <c r="P167" s="19">
-        <f>SUM(P7:P166)</f>
-        <v>-28136.05</v>
-      </c>
-      <c r="Q167" s="4"/>
-    </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N168" s="17">
-        <f>J167-N167</f>
-        <v>28136.049999999988</v>
-      </c>
-      <c r="O168" s="17"/>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P169" s="17"/>
-    </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L171" s="1">
+      <c r="P160" s="17"/>
+    </row>
+    <row r="162" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L162" s="1">
         <v>12710</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P173" s="17"/>
+    <row r="164" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="P164" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Old Order Summary Acc/Eurotex/Eurotex.xlsx
+++ b/Old Order Summary Acc/Eurotex/Eurotex.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="186">
   <si>
     <t>MAHID KNITTING</t>
   </si>
@@ -538,9 +538,6 @@
     <t>FLEECE</t>
   </si>
   <si>
-    <t>19.09.2</t>
-  </si>
-  <si>
     <t>20.09.21</t>
   </si>
   <si>
@@ -575,6 +572,9 @@
   </si>
   <si>
     <t>21.09.09.21</t>
+  </si>
+  <si>
+    <t>25.09.21</t>
   </si>
 </sst>
 </file>
@@ -731,15 +731,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -758,6 +749,15 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1063,8 +1063,8 @@
   <dimension ref="A1:R164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <pane ySplit="6" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N121" sqref="N121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,87 +1089,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="2"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
@@ -1610,7 +1610,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="11"/>
       <c r="K20" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L20" s="8">
         <v>1735</v>
@@ -2138,7 +2138,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="9"/>
       <c r="K38" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L38" s="8">
         <v>1735</v>
@@ -2529,7 +2529,7 @@
         <v>1735.02</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L49" s="8">
         <v>1750</v>
@@ -3198,7 +3198,7 @@
         <v>200</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L70" s="12">
         <v>1737</v>
@@ -3379,7 +3379,7 @@
         <v>365.4</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L75" s="8">
         <v>1737</v>
@@ -3393,10 +3393,10 @@
       <c r="O75" s="9"/>
       <c r="P75" s="15"/>
       <c r="Q75" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -3848,7 +3848,7 @@
       <c r="I91" s="8"/>
       <c r="J91" s="9"/>
       <c r="K91" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L91" s="12">
         <v>1729</v>
@@ -3874,10 +3874,18 @@
       <c r="H92" s="4"/>
       <c r="I92" s="8"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="11"/>
+      <c r="K92" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L92" s="12">
+        <v>1765</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N92" s="11">
+        <v>689</v>
+      </c>
       <c r="O92" s="11"/>
       <c r="P92" s="16"/>
       <c r="Q92" s="4"/>
@@ -3939,7 +3947,7 @@
       <c r="M95" s="12"/>
       <c r="N95" s="11">
         <f>SUM(N90:N94)</f>
-        <v>263</v>
+        <v>952</v>
       </c>
       <c r="O95" s="11">
         <f>SUM(O90:O94)</f>
@@ -3947,181 +3955,181 @@
       </c>
       <c r="P95" s="16">
         <f>N95-J95+O95</f>
-        <v>-4737</v>
+        <v>-4048</v>
       </c>
       <c r="Q95" s="4"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C96" s="26">
+      <c r="C96" s="23">
         <v>32832</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="25">
         <v>1750</v>
       </c>
-      <c r="H96" s="25" t="s">
+      <c r="H96" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I96" s="27" t="s">
+      <c r="I96" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J96" s="28">
+      <c r="J96" s="25">
         <v>1750</v>
       </c>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="30">
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="27">
         <v>0</v>
       </c>
-      <c r="O96" s="30"/>
-      <c r="P96" s="31"/>
-      <c r="Q96" s="25"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="22"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="29" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="L97" s="29">
+      <c r="L97" s="26">
         <v>1720</v>
       </c>
-      <c r="M97" s="29" t="s">
+      <c r="M97" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N97" s="30">
+      <c r="N97" s="27">
         <v>219</v>
       </c>
-      <c r="O97" s="30"/>
-      <c r="P97" s="31"/>
-      <c r="Q97" s="25"/>
+      <c r="O97" s="27"/>
+      <c r="P97" s="28"/>
+      <c r="Q97" s="22"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="L98" s="29">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L98" s="26">
         <v>1734</v>
       </c>
-      <c r="M98" s="29" t="s">
+      <c r="M98" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="N98" s="30">
+      <c r="N98" s="27">
         <v>1528</v>
       </c>
-      <c r="O98" s="30"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="25"/>
+      <c r="O98" s="27"/>
+      <c r="P98" s="28"/>
+      <c r="Q98" s="22"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="L99" s="29">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L99" s="26">
         <v>1738</v>
       </c>
-      <c r="M99" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="N99" s="30">
+      <c r="M99" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="N99" s="27">
         <v>5</v>
       </c>
-      <c r="O99" s="30"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="25"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="22"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="30"/>
-      <c r="O100" s="30"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="25"/>
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="22"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="30">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="27">
         <f>SUM(J96:J100)</f>
         <v>1750</v>
       </c>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="30">
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="27">
         <f>SUM(N96:N100)</f>
         <v>1752</v>
       </c>
-      <c r="O101" s="30">
+      <c r="O101" s="27">
         <f>SUM(O96:O100)</f>
         <v>0</v>
       </c>
-      <c r="P101" s="32">
+      <c r="P101" s="29">
         <f>N101-J101+O101</f>
         <v>2</v>
       </c>
-      <c r="Q101" s="25"/>
+      <c r="Q101" s="22"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -4400,7 +4408,7 @@
       <c r="I110" s="8"/>
       <c r="J110" s="9"/>
       <c r="K110" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L110" s="8">
         <v>1751</v>
@@ -4478,13 +4486,13 @@
         <v>135.41</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L112" s="12">
         <v>1734</v>
       </c>
       <c r="M112" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N112" s="11">
         <v>1229</v>
@@ -4492,7 +4500,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="16"/>
       <c r="Q112" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
@@ -4635,13 +4643,13 @@
         <v>1525</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L117" s="12">
         <v>1734</v>
       </c>
       <c r="M117" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N117" s="11">
         <v>794</v>
@@ -4649,7 +4657,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="16"/>
       <c r="Q117" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
@@ -4684,13 +4692,13 @@
         <v>1675</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L118" s="12">
         <v>1751</v>
       </c>
       <c r="M118" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N118" s="11">
         <v>620</v>
@@ -4710,10 +4718,18 @@
       <c r="H119" s="4"/>
       <c r="I119" s="8"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="11"/>
+      <c r="K119" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L119" s="12">
+        <v>1764</v>
+      </c>
+      <c r="M119" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N119" s="11">
+        <v>267</v>
+      </c>
       <c r="O119" s="11"/>
       <c r="P119" s="16"/>
       <c r="Q119" s="4"/>
@@ -4729,10 +4745,18 @@
       <c r="H120" s="4"/>
       <c r="I120" s="8"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="11"/>
+      <c r="K120" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L120" s="12">
+        <v>1764</v>
+      </c>
+      <c r="M120" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N120" s="11">
+        <v>316</v>
+      </c>
       <c r="O120" s="11"/>
       <c r="P120" s="16"/>
       <c r="Q120" s="4"/>
@@ -4756,7 +4780,7 @@
       <c r="M121" s="12"/>
       <c r="N121" s="11">
         <f>SUM(N117:N120)</f>
-        <v>1414</v>
+        <v>1997</v>
       </c>
       <c r="O121" s="11">
         <f>SUM(O117:O120)</f>
@@ -4764,7 +4788,7 @@
       </c>
       <c r="P121" s="16">
         <f>N121-J121+O121</f>
-        <v>-1786</v>
+        <v>-1203</v>
       </c>
       <c r="Q121" s="4"/>
     </row>
@@ -4800,13 +4824,13 @@
         <v>357.5</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L122" s="12">
         <v>1736</v>
       </c>
       <c r="M122" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N122" s="11">
         <v>1029</v>
@@ -4814,7 +4838,7 @@
       <c r="O122" s="11"/>
       <c r="P122" s="16"/>
       <c r="Q122" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
@@ -5127,7 +5151,7 @@
       <c r="I133" s="8"/>
       <c r="J133" s="9"/>
       <c r="K133" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L133" s="12">
         <v>1751</v>
@@ -5142,7 +5166,7 @@
       <c r="O133" s="11"/>
       <c r="P133" s="16"/>
       <c r="Q133" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
@@ -5156,10 +5180,19 @@
       <c r="H134" s="4"/>
       <c r="I134" s="8"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="12"/>
-      <c r="N134" s="11"/>
+      <c r="K134" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L134" s="12">
+        <v>1764</v>
+      </c>
+      <c r="M134" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="N134" s="11">
+        <f>1230+1234+28</f>
+        <v>2492</v>
+      </c>
       <c r="O134" s="11"/>
       <c r="P134" s="16"/>
       <c r="Q134" s="4"/>
@@ -5221,7 +5254,7 @@
       <c r="M137" s="12"/>
       <c r="N137" s="11">
         <f>SUM(N132:N136)</f>
-        <v>428</v>
+        <v>2920</v>
       </c>
       <c r="O137" s="11">
         <f>SUM(O132:O136)</f>
@@ -5229,7 +5262,7 @@
       </c>
       <c r="P137" s="16">
         <f>N137-J137+O137</f>
-        <v>-2744.93</v>
+        <v>-252.92999999999984</v>
       </c>
       <c r="Q137" s="4"/>
     </row>
@@ -5643,7 +5676,7 @@
       </c>
       <c r="P158" s="19">
         <f>SUM(P7:P157)</f>
-        <v>-18951.21</v>
+        <v>-15187.210000000001</v>
       </c>
       <c r="Q158" s="4"/>
     </row>
